--- a/datasets/raw/SMILES_to_BigSMILES_Conversion_wo_block_copolymer_with_HSPs.xlsx
+++ b/datasets/raw/SMILES_to_BigSMILES_Conversion_wo_block_copolymer_with_HSPs.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oitncsu-my.sharepoint.com/personal/mtseifri_ncsu_edu/Documents/Data-Driven Organic Materials Lab/Projects/Polymer scattering dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sinad\OneDrive - North Carolina State University\Data-Driven Organic Materials Lab\Projects\Polymer scattering dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="251" documentId="13_ncr:1_{EC8E9976-AC0C-4E16-9499-9D82AD21D66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93CA8137-4DBE-4783-B65B-E704F52A2B28}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="4110" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4110" yWindow="4110" windowWidth="21600" windowHeight="11300"/>
   </bookViews>
   <sheets>
     <sheet name="Structures" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,658 +35,658 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLRICHVALUE" count="93">
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="0"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="1"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="2"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="3"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="4"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="5"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="6"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="7"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="8"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="9"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="10"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="11"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="12"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="13"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="14"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="15"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="16"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="17"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="18"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="19"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="20"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="21"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="22"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="23"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="24"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="25"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="26"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="27"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="28"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="29"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="30"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="31"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="32"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="33"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="34"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="35"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="36"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="37"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="38"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="39"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="40"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="41"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="42"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="43"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="44"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="45"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="46"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="47"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="48"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="49"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="50"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="51"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="52"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="53"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="54"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="55"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="56"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="57"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="58"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="59"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="60"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="61"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="62"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="63"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="64"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="65"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="66"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="67"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="68"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="69"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="70"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="71"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="72"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="73"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="74"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="75"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="76"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="77"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="78"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="79"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="80"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="81"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="82"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="83"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="84"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="85"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="86"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="87"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="88"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="89"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="90"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="91"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="92"/>
         </ext>
       </extLst>
@@ -1868,7 +1867,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2472,9 +2471,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2512,9 +2511,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2549,7 +2548,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2584,7 +2583,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2757,24 +2756,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.5703125" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.7265625" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" customWidth="1"/>
+    <col min="3" max="3" width="23.7265625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.54296875" customWidth="1"/>
+    <col min="6" max="6" width="30.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2797,7 +2796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2820,7 +2819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2843,7 +2842,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2866,7 +2865,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2889,7 +2888,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -2912,7 +2911,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -2935,7 +2934,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -2958,7 +2957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -2981,7 +2980,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -3004,7 +3003,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -3027,7 +3026,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -3050,7 +3049,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -3073,7 +3072,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -3096,7 +3095,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
@@ -3119,7 +3118,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -3132,8 +3131,17 @@
       <c r="D16" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F16">
+        <v>12.4</v>
+      </c>
+      <c r="G16">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -3156,7 +3164,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -3179,7 +3187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -3202,7 +3210,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -3216,7 +3224,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -3239,7 +3247,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -3253,7 +3261,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
@@ -3276,7 +3284,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
@@ -3299,7 +3307,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
@@ -3322,7 +3330,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
@@ -3345,7 +3353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
@@ -3359,7 +3367,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>83</v>
       </c>
@@ -3382,7 +3390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>86</v>
       </c>
@@ -3405,7 +3413,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>89</v>
       </c>
@@ -3428,7 +3436,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>92</v>
       </c>
@@ -3451,7 +3459,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>95</v>
       </c>
@@ -3474,7 +3482,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>99</v>
       </c>
@@ -3497,7 +3505,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>102</v>
       </c>
@@ -3520,7 +3528,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>105</v>
       </c>
@@ -3543,7 +3551,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>108</v>
       </c>
@@ -3566,7 +3574,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>111</v>
       </c>
@@ -3589,7 +3597,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>114</v>
       </c>
@@ -3603,7 +3611,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>117</v>
       </c>
@@ -3626,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>120</v>
       </c>
@@ -3649,7 +3657,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>123</v>
       </c>
@@ -3672,7 +3680,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>126</v>
       </c>
@@ -3695,7 +3703,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>129</v>
       </c>
@@ -3718,7 +3726,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>132</v>
       </c>
@@ -3741,7 +3749,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>135</v>
       </c>
@@ -3755,7 +3763,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>138</v>
       </c>
@@ -3778,7 +3786,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>141</v>
       </c>
@@ -3801,7 +3809,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>144</v>
       </c>
@@ -3824,7 +3832,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>147</v>
       </c>
@@ -3847,7 +3855,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>150</v>
       </c>
@@ -3870,7 +3878,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>153</v>
       </c>
@@ -3893,7 +3901,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>156</v>
       </c>
@@ -3916,7 +3924,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>159</v>
       </c>
@@ -3939,7 +3947,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>162</v>
       </c>
@@ -3962,7 +3970,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>165</v>
       </c>
@@ -3985,7 +3993,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>168</v>
       </c>
@@ -4008,7 +4016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>171</v>
       </c>
@@ -4031,7 +4039,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>174</v>
       </c>
@@ -4054,7 +4062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>177</v>
       </c>
@@ -4077,7 +4085,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>180</v>
       </c>
@@ -4100,7 +4108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>183</v>
       </c>
@@ -4123,7 +4131,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>186</v>
       </c>
@@ -4146,7 +4154,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>189</v>
       </c>
@@ -4169,7 +4177,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>192</v>
       </c>
@@ -4192,7 +4200,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>194</v>
       </c>
@@ -4215,7 +4223,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>197</v>
       </c>
@@ -4229,7 +4237,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>200</v>
       </c>
@@ -4252,7 +4260,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>203</v>
       </c>
@@ -4265,8 +4273,17 @@
       <c r="D68" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E68">
+        <v>18.7</v>
+      </c>
+      <c r="F68">
+        <v>11.4</v>
+      </c>
+      <c r="G68">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>206</v>
       </c>
@@ -4289,7 +4306,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>209</v>
       </c>
@@ -4312,7 +4329,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>212</v>
       </c>
@@ -4326,7 +4343,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>215</v>
       </c>
@@ -4339,8 +4356,17 @@
       <c r="D72" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E72">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F72">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G72">
+        <v>13.4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>218</v>
       </c>
@@ -4354,7 +4380,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>221</v>
       </c>
@@ -4368,7 +4394,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>224</v>
       </c>
@@ -4391,7 +4417,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>227</v>
       </c>
@@ -4414,7 +4440,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>229</v>
       </c>
@@ -4437,7 +4463,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>231</v>
       </c>
@@ -4451,7 +4477,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>234</v>
       </c>
@@ -4465,7 +4491,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>237</v>
       </c>
@@ -4488,7 +4514,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>240</v>
       </c>
@@ -4502,7 +4528,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>243</v>
       </c>
@@ -4516,7 +4542,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>246</v>
       </c>
@@ -4539,7 +4565,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>249</v>
       </c>
@@ -4562,7 +4588,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>252</v>
       </c>
@@ -4576,7 +4602,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>255</v>
       </c>
@@ -4589,8 +4615,17 @@
       <c r="D86" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F86">
+        <v>11.9</v>
+      </c>
+      <c r="G86">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>257</v>
       </c>
@@ -4604,7 +4639,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>260</v>
       </c>
@@ -4627,7 +4662,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>263</v>
       </c>
@@ -4650,7 +4685,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>266</v>
       </c>
@@ -4664,7 +4699,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>269</v>
       </c>
@@ -4687,7 +4722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>272</v>
       </c>
@@ -4701,7 +4736,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>275</v>
       </c>
@@ -4724,7 +4759,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>278</v>
       </c>
@@ -4747,7 +4782,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>281</v>
       </c>
@@ -4770,7 +4805,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>284</v>
       </c>
@@ -4793,7 +4828,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>287</v>
       </c>
@@ -4816,7 +4851,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>290</v>
       </c>
@@ -4829,8 +4864,17 @@
       <c r="D98" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F98">
+        <v>5</v>
+      </c>
+      <c r="G98">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>292</v>
       </c>

--- a/datasets/raw/SMILES_to_BigSMILES_Conversion_wo_block_copolymer_with_HSPs.xlsx
+++ b/datasets/raw/SMILES_to_BigSMILES_Conversion_wo_block_copolymer_with_HSPs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sinad\OneDrive - North Carolina State University\Data-Driven Organic Materials Lab\Projects\Polymer scattering dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oitncsu-my.sharepoint.com/personal/mtseifri_ncsu_edu/Documents/Data-Driven Organic Materials Lab/Projects/Polymer scattering dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_E1EAF0848B421BFC9FA98E3D167A68F8CF78BE43" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="4110" windowWidth="21600" windowHeight="11300"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Structures" sheetId="1" r:id="rId1"/>
@@ -19,674 +20,663 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
   <futureMetadata name="XLRICHVALUE" count="93">
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="0"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="1"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="2"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="3"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="4"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="5"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="6"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="7"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="8"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="9"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="10"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="11"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="12"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="13"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="14"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="15"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="16"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="17"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="18"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="19"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="20"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="21"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="22"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="23"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="24"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="25"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="26"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="27"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="28"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="29"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="30"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="31"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="32"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="33"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="34"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="35"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="36"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="37"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="38"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="39"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="40"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="41"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="42"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="43"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="44"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="45"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="46"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="47"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="48"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="49"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="50"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="51"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="52"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="53"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="54"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="55"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="56"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="57"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="58"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="59"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="60"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="61"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="62"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="63"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="64"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="65"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="66"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="67"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="68"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="69"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="70"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="71"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="72"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="73"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="74"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="75"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="76"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="77"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="78"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="79"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="80"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="81"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="82"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="83"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="84"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="85"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="86"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="87"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="88"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="89"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="90"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="91"/>
         </ext>
       </extLst>
     </bk>
     <bk>
       <extLst>
-        <ext xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="92"/>
         </ext>
       </extLst>
@@ -1867,7 +1857,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2471,9 +2461,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2511,9 +2501,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2548,7 +2538,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2583,7 +2573,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2756,24 +2746,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7265625" customWidth="1"/>
-    <col min="2" max="2" width="22.7265625" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.7265625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="36.54296875" customWidth="1"/>
-    <col min="6" max="6" width="30.7265625" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2796,7 +2786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -2819,7 +2809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -2842,7 +2832,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2865,7 +2855,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -2888,7 +2878,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -2911,7 +2901,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -2934,7 +2924,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -2957,7 +2947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -2980,7 +2970,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -3003,7 +2993,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -3026,7 +3016,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -3049,7 +3039,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>38</v>
       </c>
@@ -3072,7 +3062,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
@@ -3095,7 +3085,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>44</v>
       </c>
@@ -3118,7 +3108,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>47</v>
       </c>
@@ -3141,7 +3131,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>50</v>
       </c>
@@ -3164,7 +3154,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
@@ -3187,7 +3177,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -3210,7 +3200,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -3224,7 +3214,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>62</v>
       </c>
@@ -3247,7 +3237,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>65</v>
       </c>
@@ -3261,7 +3251,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
@@ -3284,7 +3274,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>71</v>
       </c>
@@ -3307,7 +3297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>74</v>
       </c>
@@ -3330,7 +3320,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>77</v>
       </c>
@@ -3353,7 +3343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>80</v>
       </c>
@@ -3367,7 +3357,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>83</v>
       </c>
@@ -3390,7 +3380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>86</v>
       </c>
@@ -3413,7 +3403,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>89</v>
       </c>
@@ -3436,7 +3426,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>92</v>
       </c>
@@ -3459,7 +3449,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>95</v>
       </c>
@@ -3482,7 +3472,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>99</v>
       </c>
@@ -3505,7 +3495,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>102</v>
       </c>
@@ -3528,7 +3518,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>105</v>
       </c>
@@ -3551,7 +3541,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>108</v>
       </c>
@@ -3574,7 +3564,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>111</v>
       </c>
@@ -3597,7 +3587,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>114</v>
       </c>
@@ -3611,7 +3601,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>117</v>
       </c>
@@ -3634,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>120</v>
       </c>
@@ -3657,7 +3647,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>123</v>
       </c>
@@ -3680,7 +3670,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>126</v>
       </c>
@@ -3703,7 +3693,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>129</v>
       </c>
@@ -3726,7 +3716,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>132</v>
       </c>
@@ -3749,7 +3739,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>135</v>
       </c>
@@ -3763,7 +3753,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>138</v>
       </c>
@@ -3786,7 +3776,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>141</v>
       </c>
@@ -3809,7 +3799,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>144</v>
       </c>
@@ -3832,7 +3822,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>147</v>
       </c>
@@ -3855,7 +3845,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>150</v>
       </c>
@@ -3878,7 +3868,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>153</v>
       </c>
@@ -3901,7 +3891,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>156</v>
       </c>
@@ -3924,7 +3914,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>159</v>
       </c>
@@ -3947,7 +3937,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>162</v>
       </c>
@@ -3970,7 +3960,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>165</v>
       </c>
@@ -3993,7 +3983,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>168</v>
       </c>
@@ -4016,7 +4006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>171</v>
       </c>
@@ -4039,7 +4029,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>174</v>
       </c>
@@ -4062,7 +4052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>177</v>
       </c>
@@ -4085,7 +4075,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>180</v>
       </c>
@@ -4108,7 +4098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>183</v>
       </c>
@@ -4131,7 +4121,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>186</v>
       </c>
@@ -4154,7 +4144,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>189</v>
       </c>
@@ -4177,7 +4167,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>192</v>
       </c>
@@ -4200,7 +4190,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>194</v>
       </c>
@@ -4223,7 +4213,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>197</v>
       </c>
@@ -4237,7 +4227,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>200</v>
       </c>
@@ -4260,7 +4250,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>203</v>
       </c>
@@ -4283,7 +4273,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>206</v>
       </c>
@@ -4306,7 +4296,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>209</v>
       </c>
@@ -4329,7 +4319,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>212</v>
       </c>
@@ -4343,7 +4333,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>215</v>
       </c>
@@ -4366,7 +4356,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>218</v>
       </c>
@@ -4380,7 +4370,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>221</v>
       </c>
@@ -4394,7 +4384,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>224</v>
       </c>
@@ -4417,7 +4407,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>227</v>
       </c>
@@ -4440,7 +4430,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>229</v>
       </c>
@@ -4463,7 +4453,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>231</v>
       </c>
@@ -4477,7 +4467,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>234</v>
       </c>
@@ -4491,7 +4481,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>237</v>
       </c>
@@ -4514,7 +4504,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>240</v>
       </c>
@@ -4528,7 +4518,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>243</v>
       </c>
@@ -4542,7 +4532,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>246</v>
       </c>
@@ -4565,7 +4555,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>249</v>
       </c>
@@ -4588,7 +4578,7 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>252</v>
       </c>
@@ -4602,7 +4592,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>255</v>
       </c>
@@ -4625,7 +4615,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>257</v>
       </c>
@@ -4639,7 +4629,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>260</v>
       </c>
@@ -4662,7 +4652,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>263</v>
       </c>
@@ -4685,7 +4675,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>266</v>
       </c>
@@ -4699,7 +4689,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>269</v>
       </c>
@@ -4722,7 +4712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>272</v>
       </c>
@@ -4736,7 +4726,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>275</v>
       </c>
@@ -4759,7 +4749,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>278</v>
       </c>
@@ -4782,7 +4772,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>281</v>
       </c>
@@ -4805,7 +4795,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>284</v>
       </c>
@@ -4828,7 +4818,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>287</v>
       </c>
@@ -4851,7 +4841,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>290</v>
       </c>
@@ -4874,7 +4864,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>292</v>
       </c>

--- a/datasets/raw/SMILES_to_BigSMILES_Conversion_wo_block_copolymer_with_HSPs.xlsx
+++ b/datasets/raw/SMILES_to_BigSMILES_Conversion_wo_block_copolymer_with_HSPs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oitncsu-my.sharepoint.com/personal/mtseifri_ncsu_edu/Documents/Data-Driven Organic Materials Lab/Projects/Polymer scattering dataset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdehgha2\Desktop\PhD code\PLS-data1\PLS-Dataset\datasets\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_E1EAF0848B421BFC9FA98E3D167A68F8CF78BE43" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45099D0C-BB53-4C80-AC4C-74495544A651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Structures" sheetId="1" r:id="rId1"/>
@@ -967,7 +967,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="293">
   <si>
     <t>Name</t>
   </si>
@@ -1390,12 +1390,6 @@
   </si>
   <si>
     <t>{&lt;c1ccc(s1)C2=C3C(=O)N(CC(CCCCCCCCCC)CCCCCCCCCCCC)C(=C3C(=O)N2CC(CCCCCCCCCC)CCCCCCCCCCCC)c4ccc(s4)c5ccc(s5)c6ccc(s6)&gt;}</t>
-  </si>
-  <si>
-    <t>PCDTPT-ODD</t>
-  </si>
-  <si>
-    <t>*c1cc5c(s1)c4sc(c2cnc(*)c3nsnc23)cc4C5(CC(CCCCCCCC)CCCCCCCCCC)CC(CCCCCCCC)CCCCCCCCCC</t>
   </si>
   <si>
     <t>{&lt;c1cc2c(s1)c1sc(cc1C2(CC(CCCCCCCC)CCCCCCCCCC)CC(CCCCCCCC)CCCCCCCCCC)c3cnc(c4nsnc34)&gt;}</t>
@@ -2747,10 +2741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G99"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3778,269 +3772,269 @@
     </row>
     <row r="47" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B47" t="e" vm="44">
         <v>#VALUE!</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E47">
-        <v>18.100000000000001</v>
+        <v>20.5</v>
       </c>
       <c r="F47">
-        <v>2.6</v>
+        <v>3.6</v>
       </c>
       <c r="G47">
-        <v>3.4</v>
+        <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B48" t="e" vm="45">
         <v>#VALUE!</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E48">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="F48">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="G48">
-        <v>2.2000000000000002</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B49" t="e" vm="46">
         <v>#VALUE!</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E49">
-        <v>20.3</v>
+        <v>17.8</v>
       </c>
       <c r="F49">
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="G49">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B50" t="e" vm="47">
         <v>#VALUE!</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E50">
-        <v>17.8</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="F50">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="G50">
-        <v>1.9</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B51" t="e" vm="48">
         <v>#VALUE!</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E51">
-        <v>19.600000000000001</v>
+        <v>17.7</v>
       </c>
       <c r="F51">
-        <v>0.1</v>
+        <v>2.5</v>
       </c>
       <c r="G51">
-        <v>6.3</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B52" t="e" vm="49">
         <v>#VALUE!</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E52">
-        <v>17.7</v>
+        <v>19</v>
       </c>
       <c r="F52">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="G52">
-        <v>4.5999999999999996</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B53" t="e" vm="50">
         <v>#VALUE!</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E53">
-        <v>19</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="F53">
-        <v>3.2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G53">
-        <v>2.4</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B54" t="e" vm="51">
         <v>#VALUE!</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E54">
-        <v>19.399999999999999</v>
+        <v>17.3</v>
       </c>
       <c r="F54">
-        <v>1.1000000000000001</v>
+        <v>27.5</v>
       </c>
       <c r="G54">
-        <v>4.8</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B55" t="e" vm="52">
         <v>#VALUE!</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E55">
-        <v>17.3</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F55">
-        <v>27.5</v>
+        <v>1.3</v>
       </c>
       <c r="G55">
-        <v>0.1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B56" t="e" vm="53">
         <v>#VALUE!</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E56">
-        <v>18.600000000000001</v>
+        <v>18.3</v>
       </c>
       <c r="F56">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="G56">
-        <v>6</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B57" t="e" vm="54">
         <v>#VALUE!</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E57">
         <v>18.3</v>
       </c>
       <c r="F57">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G57">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B58" t="e" vm="55">
         <v>#VALUE!</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E58">
         <v>18.3</v>
@@ -4049,21 +4043,21 @@
         <v>0.4</v>
       </c>
       <c r="G58">
-        <v>2</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B59" t="e" vm="56">
         <v>#VALUE!</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E59">
         <v>18.3</v>
@@ -4072,99 +4066,99 @@
         <v>0.4</v>
       </c>
       <c r="G59">
-        <v>2.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B60" t="e" vm="57">
         <v>#VALUE!</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E60">
-        <v>18.3</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="F60">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="G60">
-        <v>2</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B61" t="e" vm="58">
         <v>#VALUE!</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E61">
-        <v>17.399999999999999</v>
+        <v>17.3</v>
       </c>
       <c r="F61">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G61">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B62" t="e" vm="59">
         <v>#VALUE!</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E62">
-        <v>17.3</v>
+        <v>19.2</v>
       </c>
       <c r="F62">
-        <v>2.2000000000000002</v>
+        <v>0.9</v>
       </c>
       <c r="G62">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B63" t="e" vm="60">
         <v>#VALUE!</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="D63" s="2" t="s">
         <v>191</v>
       </c>
+      <c r="D63" s="2">
+        <v>0</v>
+      </c>
       <c r="E63">
-        <v>19.2</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="F63">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="G63">
-        <v>4.8</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -4177,234 +4171,234 @@
       <c r="C64" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D64" s="2">
-        <v>0</v>
+      <c r="D64" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="E64">
-        <v>18.100000000000001</v>
+        <v>17.3</v>
       </c>
       <c r="F64">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>2.6</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B65" t="e" vm="62">
         <v>#VALUE!</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="E65">
-        <v>17.3</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>0.9</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B66" t="e" vm="63">
         <v>#VALUE!</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
+      </c>
+      <c r="E66">
+        <v>19.5</v>
+      </c>
+      <c r="F66">
+        <v>0.1</v>
+      </c>
+      <c r="G66">
+        <v>0.1</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B67" t="e" vm="64">
         <v>#VALUE!</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E67">
-        <v>19.5</v>
+        <v>18.7</v>
       </c>
       <c r="F67">
-        <v>0.1</v>
+        <v>11.4</v>
       </c>
       <c r="G67">
-        <v>0.1</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B68" t="e" vm="65">
         <v>#VALUE!</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E68">
-        <v>18.7</v>
+        <v>18.2</v>
       </c>
       <c r="F68">
-        <v>11.4</v>
+        <v>4</v>
       </c>
       <c r="G68">
-        <v>14.8</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B69" t="e" vm="66">
         <v>#VALUE!</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E69">
-        <v>18.2</v>
+        <v>17.3</v>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G69">
-        <v>2.4</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B70" t="e" vm="67">
         <v>#VALUE!</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E70">
-        <v>17.3</v>
-      </c>
-      <c r="F70">
-        <v>2</v>
-      </c>
-      <c r="G70">
-        <v>3.8</v>
+        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B71" t="e" vm="68">
         <v>#VALUE!</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
+      </c>
+      <c r="E71">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F71">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="G71">
+        <v>13.4</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B72" t="e" vm="69">
         <v>#VALUE!</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E72">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="F72">
-        <v>19.100000000000001</v>
-      </c>
-      <c r="G72">
-        <v>13.4</v>
+        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B73" t="e" vm="70">
         <v>#VALUE!</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B74" t="e" vm="71">
         <v>#VALUE!</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="E74">
+        <v>18.3</v>
+      </c>
+      <c r="F74">
+        <v>3.2</v>
+      </c>
+      <c r="G74">
+        <v>3.9</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B75" t="e" vm="72">
         <v>#VALUE!</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E75">
-        <v>18.3</v>
+        <v>141</v>
+      </c>
+      <c r="E75" s="2">
+        <v>18.100000000000001</v>
       </c>
       <c r="F75">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="G75">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
@@ -4417,333 +4411,333 @@
       <c r="C76" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D76" s="2">
-        <v>0</v>
-      </c>
-      <c r="E76" s="2">
-        <v>18.100000000000001</v>
+      <c r="D76" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E76">
+        <v>18.5</v>
       </c>
       <c r="F76">
-        <v>2.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G76">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B77" t="e" vm="44">
+      <c r="B77" t="e" vm="74">
         <v>#VALUE!</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>230</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E77">
-        <v>18.5</v>
-      </c>
-      <c r="F77">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G77">
-        <v>3.7</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B78" t="e" vm="74">
+        <v>232</v>
+      </c>
+      <c r="B78" t="e" vm="75">
         <v>#VALUE!</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B79" t="e" vm="75">
+        <v>235</v>
+      </c>
+      <c r="B79" t="e" vm="76">
         <v>#VALUE!</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
+      </c>
+      <c r="E79">
+        <v>18.3</v>
+      </c>
+      <c r="F79">
+        <v>3</v>
+      </c>
+      <c r="G79">
+        <v>3.7</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B80" t="e" vm="76">
+        <v>238</v>
+      </c>
+      <c r="B80" t="e" vm="77">
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E80">
-        <v>18.3</v>
-      </c>
-      <c r="F80">
-        <v>3</v>
-      </c>
-      <c r="G80">
-        <v>3.7</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B81" t="e" vm="77">
+        <v>241</v>
+      </c>
+      <c r="B81" t="e" vm="78">
         <v>#VALUE!</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B82" t="e" vm="78">
+        <v>244</v>
+      </c>
+      <c r="B82" t="e" vm="79">
         <v>#VALUE!</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
+      </c>
+      <c r="E82">
+        <v>19.8</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>1.8</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B83" t="e" vm="79">
+        <v>247</v>
+      </c>
+      <c r="B83" t="e" vm="80">
         <v>#VALUE!</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E83">
-        <v>19.8</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="G83">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B84" t="e" vm="80">
+        <v>250</v>
+      </c>
+      <c r="B84" t="e" vm="81">
         <v>#VALUE!</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E84">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="F84">
-        <v>0.9</v>
-      </c>
-      <c r="G84">
-        <v>1.9</v>
+        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B85" t="e" vm="81">
+        <v>253</v>
+      </c>
+      <c r="B85" t="e" vm="82">
         <v>#VALUE!</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="D85" s="2" t="s">
         <v>254</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="F85">
+        <v>11.9</v>
+      </c>
+      <c r="G85">
+        <v>15.3</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="B86" t="e" vm="82">
+      <c r="B86" t="e" vm="83">
         <v>#VALUE!</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D86" s="2">
-        <v>0</v>
-      </c>
-      <c r="E86">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="F86">
-        <v>11.9</v>
-      </c>
-      <c r="G86">
-        <v>15.3</v>
+      <c r="D86" s="2" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B87" t="e" vm="83">
+        <v>258</v>
+      </c>
+      <c r="B87" t="e" vm="84">
         <v>#VALUE!</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>0.1</v>
+      </c>
+      <c r="G87">
+        <v>0.1</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B88" t="e" vm="84">
+        <v>261</v>
+      </c>
+      <c r="B88" t="e" vm="85">
         <v>#VALUE!</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E88">
-        <v>5</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="F88">
-        <v>0.1</v>
+        <v>2.7</v>
       </c>
       <c r="G88">
-        <v>0.1</v>
+        <v>4.0999999999999996</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B89" t="e" vm="85">
+        <v>264</v>
+      </c>
+      <c r="B89" t="e" vm="86">
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E89">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="F89">
-        <v>2.7</v>
-      </c>
-      <c r="G89">
-        <v>4.0999999999999996</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B90" t="e" vm="86">
+        <v>267</v>
+      </c>
+      <c r="B90" t="e" vm="87">
         <v>#VALUE!</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
+      </c>
+      <c r="E90">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F90">
+        <v>0.8</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B91" t="e" vm="87">
+        <v>270</v>
+      </c>
+      <c r="B91" t="e" vm="88">
         <v>#VALUE!</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E91">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="F91">
-        <v>0.8</v>
-      </c>
-      <c r="G91">
-        <v>2</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B92" t="e" vm="88">
+        <v>273</v>
+      </c>
+      <c r="B92" t="e" vm="89">
         <v>#VALUE!</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
+      </c>
+      <c r="E92">
+        <v>19.5</v>
+      </c>
+      <c r="F92">
+        <v>1.6</v>
+      </c>
+      <c r="G92">
+        <v>2.4</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B93" t="e" vm="89">
+        <v>276</v>
+      </c>
+      <c r="B93" t="e" vm="90">
         <v>#VALUE!</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E93">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="F93">
-        <v>1.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G93">
         <v>2.4</v>
@@ -4751,22 +4745,22 @@
     </row>
     <row r="94" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="B94" t="e" vm="90">
+        <v>279</v>
+      </c>
+      <c r="B94" t="e" vm="91">
         <v>#VALUE!</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E94">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="F94">
-        <v>2.2999999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="G94">
         <v>2.4</v>
@@ -4774,45 +4768,45 @@
     </row>
     <row r="95" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B95" t="e" vm="91">
+        <v>282</v>
+      </c>
+      <c r="B95" t="e" vm="92">
         <v>#VALUE!</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E95">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="F95">
-        <v>1.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G95">
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B96" t="e" vm="92">
-        <v>#VALUE!</v>
+        <v>285</v>
+      </c>
+      <c r="B96" t="s">
+        <v>96</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E96">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="F96">
-        <v>5.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="G96">
         <v>2.2999999999999998</v>
@@ -4820,70 +4814,47 @@
     </row>
     <row r="97" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B97" t="s">
         <v>96</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D97" s="2" t="s">
         <v>289</v>
       </c>
+      <c r="D97" s="2">
+        <v>0</v>
+      </c>
       <c r="E97">
-        <v>20.3</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="F97">
         <v>5</v>
       </c>
       <c r="G97">
-        <v>2.2999999999999998</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="B98" t="s">
-        <v>96</v>
+      <c r="B98" t="e" vm="93">
+        <v>#VALUE!</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="D98" s="2">
-        <v>0</v>
+      <c r="D98" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="E98">
-        <v>18.399999999999999</v>
+        <v>20.9</v>
       </c>
       <c r="F98">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="G98">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B99" t="e" vm="93">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E99">
-        <v>20.9</v>
-      </c>
-      <c r="F99">
-        <v>3.8</v>
-      </c>
-      <c r="G99">
         <v>5.9</v>
       </c>
     </row>

--- a/datasets/raw/SMILES_to_BigSMILES_Conversion_wo_block_copolymer_with_HSPs.xlsx
+++ b/datasets/raw/SMILES_to_BigSMILES_Conversion_wo_block_copolymer_with_HSPs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdehgha2\Desktop\PhD code\PLS-data1\PLS-Dataset\datasets\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45099D0C-BB53-4C80-AC4C-74495544A651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C473B9E8-B08D-4284-B2E7-F528E107D82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Structures" sheetId="1" r:id="rId1"/>
@@ -967,7 +967,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="296">
   <si>
     <t>Name</t>
   </si>
@@ -1846,6 +1846,15 @@
   </si>
   <si>
     <t>{&lt;c1ccc(s1)c2sc(c(C(=O)OCCCCCCCCCC)c2C(=O)OCCCCCCCCCC)c3ccc(s3)c4cc5c(c6cc(Cl)c(CC(CC)CCCC)s6)c6sc(cc6c(c6cc(Cl)c(CC(CC)CCCC)s6)c5s4)&gt;}</t>
+  </si>
+  <si>
+    <t>PM6</t>
+  </si>
+  <si>
+    <t>P5TCN-r</t>
+  </si>
+  <si>
+    <t>P5TCN</t>
   </si>
 </sst>
 </file>
@@ -1902,7 +1911,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1912,6 +1921,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2741,10 +2753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4858,6 +4870,48 @@
         <v>5.9</v>
       </c>
     </row>
+    <row r="99" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E99">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F99">
+        <v>1.7</v>
+      </c>
+      <c r="G99">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E100">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F100">
+        <v>3.4</v>
+      </c>
+      <c r="G100">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E101">
+        <v>17.7</v>
+      </c>
+      <c r="F101">
+        <v>3.75</v>
+      </c>
+      <c r="G101">
+        <v>4.8499999999999996</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/datasets/raw/SMILES_to_BigSMILES_Conversion_wo_block_copolymer_with_HSPs.xlsx
+++ b/datasets/raw/SMILES_to_BigSMILES_Conversion_wo_block_copolymer_with_HSPs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdehgha2\Desktop\PhD code\PLS-data1\PLS-Dataset\datasets\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C473B9E8-B08D-4284-B2E7-F528E107D82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BA8831-A1B3-4A07-9C27-87A41435F590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30045" yWindow="2700" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Structures" sheetId="1" r:id="rId1"/>
@@ -967,7 +967,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="299">
   <si>
     <t>Name</t>
   </si>
@@ -1855,6 +1855,15 @@
   </si>
   <si>
     <t>P5TCN</t>
+  </si>
+  <si>
+    <t>FC(C=C1C(C2=C3C=C(*)S2)=C(C=C(C(S4)=CC=C4C5=C(C(C6=C(SC(C(CCCCC)CC)=C6C7=O)C(CCCCC)CC)=O)C7=C(C8=CC=C(*)S8)S5)S9)C9=C3C(S%10)=CC(F)=C%10CC(CC)CCCCC)=C(S1)CC(CC)CCCCC</t>
+  </si>
+  <si>
+    <t>*C1=CC(F)=C(C2=C(F)C=C(C3=C(CC(CCCCCCCC)CCCCCCCCCC)C=C(C4=C(C#N)C=C(C5=CC(CC(CCCCCCCC)CCCCCCCCCC)=C(*)S5)S4)S3)S2)S1</t>
+  </si>
+  <si>
+    <t>*C1=CC(F)=C(C2=C(F)C=C(C3=C(CC(CCCCCCCC)CCCCCCCCCC)C=C(C4=C(C#N)C=C(C5=CC(CC(CCCCCCCC)CCCCCCCCCC)=C(C6=CC=C(C7=CC=C(C8=C(CC(CCCCCCCC)CCCCCCCCCC)C=C(C9=C(C#N)C=C(C%10=CC(CC(CCCCCCCC)CCCCCCCCCC)=C(C%11=CC=C(C%12=CC=C(C%13=C(CC(CCCCCCCC)CCCCCCCCCC)C=C(C%14=C(C#N)C=C(C%15=CC(CC(CCCCCCCC)CCCCCCCCCC)=C(C%16=CC=C(C%17=CC=C(C%18=C(CC(CCCCCCCC)CCCCCCCCCC)C=C(C%19=C(C#N)C=C(C%20=CC(CC(CCCCCCCC)CCCCCCCCCC)=C(*)S%20)S%19)S%18)S%17)S%16)S%15)S%14)S%13)S%12)S%11)S%10)S9)S8)S7)S6)S5)S4)S3)S2)S1</t>
   </si>
 </sst>
 </file>
@@ -1911,7 +1920,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1924,6 +1933,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2755,8 +2767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4874,6 +4886,9 @@
       <c r="A99" s="1" t="s">
         <v>293</v>
       </c>
+      <c r="C99" s="5" t="s">
+        <v>296</v>
+      </c>
       <c r="E99">
         <v>17.100000000000001</v>
       </c>
@@ -4888,6 +4903,9 @@
       <c r="A100" s="4" t="s">
         <v>294</v>
       </c>
+      <c r="C100" s="2" t="s">
+        <v>298</v>
+      </c>
       <c r="E100">
         <v>16.899999999999999</v>
       </c>
@@ -4901,6 +4919,9 @@
     <row r="101" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>295</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>297</v>
       </c>
       <c r="E101">
         <v>17.7</v>

--- a/datasets/raw/SMILES_to_BigSMILES_Conversion_wo_block_copolymer_with_HSPs.xlsx
+++ b/datasets/raw/SMILES_to_BigSMILES_Conversion_wo_block_copolymer_with_HSPs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdehgha2\Desktop\PhD code\PLS-data1\PLS-Dataset\datasets\raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdehgha2\Desktop\phd-code\PLS-Dataset\datasets\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BA8831-A1B3-4A07-9C27-87A41435F590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CC17E1-AE9C-410A-BC91-DBA188B78DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30045" yWindow="2700" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Structures" sheetId="1" r:id="rId1"/>
@@ -1314,9 +1314,6 @@
     <t>D18-Cl</t>
   </si>
   <si>
-    <t>*c%11cc%10c(c1cc(Cl)c(CC(CC)CCCC)s1)c8sc(c7cc(CC(CCCC)CCCCCC)c(c6cc5c2nsnc2c4cc(c3cc(*)c(CC(CCCC)CCCCCC)s3)sc4c5s6)s7)cc8c(c9cc(Cl)c(CC(CC)CCCC)s9)c%10s%11</t>
-  </si>
-  <si>
     <t>{&lt;c1cc2c(c3cc(Cl)c(CC(CC)CCCC)s3)c3sc(cc3c(c3cc(Cl)c(CC(CC)CCCC)s3)c2s1)c4cc(CC(CCCC)CCCCCC)c(s4)c5cc6c7nsnc7c7cc(sc7c6s5)c8cc(c(CC(CCCC)CCCCCC)s8)&gt;}</t>
   </si>
   <si>
@@ -1864,13 +1861,16 @@
   </si>
   <si>
     <t>*C1=CC(F)=C(C2=C(F)C=C(C3=C(CC(CCCCCCCC)CCCCCCCCCC)C=C(C4=C(C#N)C=C(C5=CC(CC(CCCCCCCC)CCCCCCCCCC)=C(C6=CC=C(C7=CC=C(C8=C(CC(CCCCCCCC)CCCCCCCCCC)C=C(C9=C(C#N)C=C(C%10=CC(CC(CCCCCCCC)CCCCCCCCCC)=C(C%11=CC=C(C%12=CC=C(C%13=C(CC(CCCCCCCC)CCCCCCCCCC)C=C(C%14=C(C#N)C=C(C%15=CC(CC(CCCCCCCC)CCCCCCCCCC)=C(C%16=CC=C(C%17=CC=C(C%18=C(CC(CCCCCCCC)CCCCCCCCCC)C=C(C%19=C(C#N)C=C(C%20=CC(CC(CCCCCCCC)CCCCCCCCCC)=C(*)S%20)S%19)S%18)S%17)S%16)S%15)S%14)S%13)S%12)S%11)S%10)S9)S8)S7)S6)S5)S4)S3)S2)S1</t>
+  </si>
+  <si>
+    <t>*c1cc2c(-c3cc(Cl)c(CC(CC)CCCC)s3)c3sc(-c4sc(-c5cc6c7nsnc7c7cc(-c8cc(CC(CCCC)CCCCCC)c(*)s8)sc7c6s5)cc4CC(CCCC)CCCCCC)cc3c(-c3cc(Cl)c(CC(CC)CCCC)s3)c2s1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1883,6 +1883,12 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1920,7 +1926,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1937,6 +1943,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2765,10 +2772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3490,7 +3497,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>99</v>
       </c>
@@ -3513,7 +3520,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>102</v>
       </c>
@@ -3536,7 +3543,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>105</v>
       </c>
@@ -3559,7 +3566,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>108</v>
       </c>
@@ -3582,7 +3589,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>111</v>
       </c>
@@ -3605,7 +3612,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>114</v>
       </c>
@@ -3613,24 +3620,25 @@
         <v>#VALUE!</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="B39" t="e" vm="36">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B39" t="e" vm="36">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="E39">
         <v>18.899999999999999</v>
@@ -3642,18 +3650,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B40" t="e" vm="37">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B40" t="e" vm="37">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="E40">
         <v>18.3</v>
@@ -3665,18 +3673,18 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" t="e" vm="38">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B41" t="e" vm="38">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>125</v>
       </c>
       <c r="E41">
         <v>19.2</v>
@@ -3688,18 +3696,18 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B42" t="e" vm="39">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B42" t="e" vm="39">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="E42">
         <v>17.2</v>
@@ -3711,18 +3719,18 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B43" t="e" vm="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B43" t="e" vm="40">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="E43">
         <v>18.7</v>
@@ -3734,18 +3742,18 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B44" t="e" vm="41">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B44" t="e" vm="41">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>134</v>
       </c>
       <c r="E44">
         <v>18.5</v>
@@ -3757,32 +3765,32 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" t="e" vm="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B45" t="e" vm="42">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D45" s="2" t="s">
+    </row>
+    <row r="46" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="B46" t="e" vm="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B46" t="e" vm="43">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="E46">
         <v>19.399999999999999</v>
@@ -3794,18 +3802,18 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" t="e" vm="44">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B47" t="e" vm="44">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="E47">
         <v>20.5</v>
@@ -3817,18 +3825,18 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" t="e" vm="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B48" t="e" vm="45">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="E48">
         <v>20.3</v>
@@ -3842,16 +3850,16 @@
     </row>
     <row r="49" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" t="e" vm="46">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B49" t="e" vm="46">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>149</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="E49">
         <v>17.8</v>
@@ -3865,16 +3873,16 @@
     </row>
     <row r="50" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" t="e" vm="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B50" t="e" vm="47">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="D50" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="E50">
         <v>19.600000000000001</v>
@@ -3888,16 +3896,16 @@
     </row>
     <row r="51" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" t="e" vm="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B51" t="e" vm="48">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="E51">
         <v>17.7</v>
@@ -3911,16 +3919,16 @@
     </row>
     <row r="52" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" t="e" vm="49">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B52" t="e" vm="49">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="E52">
         <v>19</v>
@@ -3934,16 +3942,16 @@
     </row>
     <row r="53" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B53" t="e" vm="50">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B53" t="e" vm="50">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>162</v>
       </c>
       <c r="E53">
         <v>19.399999999999999</v>
@@ -3957,16 +3965,16 @@
     </row>
     <row r="54" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" t="e" vm="51">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B54" t="e" vm="51">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="E54">
         <v>17.3</v>
@@ -3980,16 +3988,16 @@
     </row>
     <row r="55" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B55" t="e" vm="52">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B55" t="e" vm="52">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="E55">
         <v>18.600000000000001</v>
@@ -4003,16 +4011,16 @@
     </row>
     <row r="56" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B56" t="e" vm="53">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B56" t="e" vm="53">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="E56">
         <v>18.3</v>
@@ -4026,16 +4034,16 @@
     </row>
     <row r="57" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B57" t="e" vm="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B57" t="e" vm="54">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="E57">
         <v>18.3</v>
@@ -4049,16 +4057,16 @@
     </row>
     <row r="58" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B58" t="e" vm="55">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B58" t="e" vm="55">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="E58">
         <v>18.3</v>
@@ -4072,16 +4080,16 @@
     </row>
     <row r="59" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" t="e" vm="56">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B59" t="e" vm="56">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="E59">
         <v>18.3</v>
@@ -4095,16 +4103,16 @@
     </row>
     <row r="60" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" t="e" vm="57">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B60" t="e" vm="57">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="E60">
         <v>17.399999999999999</v>
@@ -4118,16 +4126,16 @@
     </row>
     <row r="61" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B61" t="e" vm="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B61" t="e" vm="58">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="E61">
         <v>17.3</v>
@@ -4141,16 +4149,16 @@
     </row>
     <row r="62" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B62" t="e" vm="59">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B62" t="e" vm="59">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="E62">
         <v>19.2</v>
@@ -4164,13 +4172,13 @@
     </row>
     <row r="63" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B63" t="e" vm="60">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B63" t="e" vm="60">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="D63" s="2">
         <v>0</v>
@@ -4187,16 +4195,16 @@
     </row>
     <row r="64" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B64" t="e" vm="61">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B64" t="e" vm="61">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="E64">
         <v>17.3</v>
@@ -4210,30 +4218,30 @@
     </row>
     <row r="65" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B65" t="e" vm="62">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="B65" t="e" vm="62">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" t="e" vm="63">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B66" t="e" vm="63">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="E66">
         <v>19.5</v>
@@ -4247,16 +4255,16 @@
     </row>
     <row r="67" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B67" t="e" vm="64">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B67" t="e" vm="64">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="E67">
         <v>18.7</v>
@@ -4270,16 +4278,16 @@
     </row>
     <row r="68" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B68" t="e" vm="65">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B68" t="e" vm="65">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="E68">
         <v>18.2</v>
@@ -4293,16 +4301,16 @@
     </row>
     <row r="69" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B69" t="e" vm="66">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B69" t="e" vm="66">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>209</v>
       </c>
       <c r="E69">
         <v>17.3</v>
@@ -4316,30 +4324,30 @@
     </row>
     <row r="70" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B70" t="e" vm="67">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B70" t="e" vm="67">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B71" t="e" vm="68">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B71" t="e" vm="68">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="E71">
         <v>18.600000000000001</v>
@@ -4353,44 +4361,44 @@
     </row>
     <row r="72" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B72" t="e" vm="69">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B72" t="e" vm="69">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B73" t="e" vm="70">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="B73" t="e" vm="70">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B74" t="e" vm="71">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B74" t="e" vm="71">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>224</v>
       </c>
       <c r="E74">
         <v>18.3</v>
@@ -4404,16 +4412,16 @@
     </row>
     <row r="75" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B75" t="e" vm="72">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B75" t="e" vm="72">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="D75" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E75" s="2">
         <v>18.100000000000001</v>
@@ -4427,16 +4435,16 @@
     </row>
     <row r="76" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B76" t="e" vm="73">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B76" t="e" vm="73">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="D76" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E76">
         <v>18.5</v>
@@ -4450,44 +4458,44 @@
     </row>
     <row r="77" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B77" t="e" vm="74">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B77" t="e" vm="74">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B78" t="e" vm="75">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B78" t="e" vm="75">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>233</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B79" t="e" vm="76">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B79" t="e" vm="76">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>237</v>
       </c>
       <c r="E79">
         <v>18.3</v>
@@ -4501,44 +4509,44 @@
     </row>
     <row r="80" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80" t="e" vm="77">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B80" t="e" vm="77">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B81" t="e" vm="78">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B81" t="e" vm="78">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C81" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B82" t="e" vm="79">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B82" t="e" vm="79">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C82" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="E82">
         <v>19.8</v>
@@ -4552,16 +4560,16 @@
     </row>
     <row r="83" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B83" t="e" vm="80">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B83" t="e" vm="80">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>249</v>
       </c>
       <c r="E83">
         <v>19.899999999999999</v>
@@ -4575,27 +4583,27 @@
     </row>
     <row r="84" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B84" t="e" vm="81">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B84" t="e" vm="81">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B85" t="e" vm="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="B85" t="e" vm="82">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="D85" s="2">
         <v>0</v>
@@ -4612,30 +4620,30 @@
     </row>
     <row r="86" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B86" t="e" vm="83">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B86" t="e" vm="83">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B87" t="e" vm="84">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="B87" t="e" vm="84">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="E87">
         <v>5</v>
@@ -4649,16 +4657,16 @@
     </row>
     <row r="88" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B88" t="e" vm="85">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B88" t="e" vm="85">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C88" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="E88">
         <v>18.600000000000001</v>
@@ -4672,30 +4680,30 @@
     </row>
     <row r="89" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B89" t="e" vm="86">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B89" t="e" vm="86">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>265</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B90" t="e" vm="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B90" t="e" vm="87">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C90" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="E90">
         <v>18.399999999999999</v>
@@ -4709,30 +4717,30 @@
     </row>
     <row r="91" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B91" t="e" vm="88">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B91" t="e" vm="88">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C91" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B92" t="e" vm="89">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B92" t="e" vm="89">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C92" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>274</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>275</v>
       </c>
       <c r="E92">
         <v>19.5</v>
@@ -4746,16 +4754,16 @@
     </row>
     <row r="93" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B93" t="e" vm="90">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B93" t="e" vm="90">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C93" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="E93">
         <v>21</v>
@@ -4769,16 +4777,16 @@
     </row>
     <row r="94" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B94" t="e" vm="91">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B94" t="e" vm="91">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C94" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="E94">
         <v>20.7</v>
@@ -4792,16 +4800,16 @@
     </row>
     <row r="95" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B95" t="e" vm="92">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B95" t="e" vm="92">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C95" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="E95">
         <v>20.6</v>
@@ -4815,16 +4823,16 @@
     </row>
     <row r="96" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B96" t="s">
         <v>96</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="E96">
         <v>20.3</v>
@@ -4838,13 +4846,13 @@
     </row>
     <row r="97" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B97" t="s">
         <v>96</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D97" s="2">
         <v>0</v>
@@ -4861,16 +4869,16 @@
     </row>
     <row r="98" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B98" t="e" vm="93">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B98" t="e" vm="93">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="E98">
         <v>20.9</v>
@@ -4884,10 +4892,10 @@
     </row>
     <row r="99" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E99">
         <v>17.100000000000001</v>
@@ -4901,10 +4909,10 @@
     </row>
     <row r="100" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E100">
         <v>16.899999999999999</v>
@@ -4918,10 +4926,10 @@
     </row>
     <row r="101" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E101">
         <v>17.7</v>

--- a/datasets/raw/SMILES_to_BigSMILES_Conversion_wo_block_copolymer_with_HSPs.xlsx
+++ b/datasets/raw/SMILES_to_BigSMILES_Conversion_wo_block_copolymer_with_HSPs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdehgha2\Desktop\phd-code\PLS-Dataset\datasets\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75CC17E1-AE9C-410A-BC91-DBA188B78DF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C350CF-6273-44B2-963E-1FF2AA5C1603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Structures" sheetId="1" r:id="rId1"/>
@@ -1422,9 +1422,6 @@
     <t>PBDT-TTz</t>
   </si>
   <si>
-    <t>*C9=CC8=C(c1cc(CCCCCC)c(CCCCCC)s1)C6SC(c5sc(c4nc3sc(c2cc(CCCCCCCC)c(*)s2)nc3s4)cc5CCCCCCCC)=CC6=C(c7cc(CCCCCC)c(CCCCCC)s7)C8S9</t>
-  </si>
-  <si>
     <t>{&lt;C1=CC2=C(c3cc(CCCCCC)c(CCCCCC)s3)C3SC(=CC3=C(c3cc(CCCCCC)c(CCCCCC)s3)C2S1)c4sc(cc4CCCCCCCC)c5nc6sc(nc6s5)c7cc(CCCCCCCC)c(s7)&gt;}</t>
   </si>
   <si>
@@ -1864,6 +1861,9 @@
   </si>
   <si>
     <t>*c1cc2c(-c3cc(Cl)c(CC(CC)CCCC)s3)c3sc(-c4sc(-c5cc6c7nsnc7c7cc(-c8cc(CC(CCCC)CCCCCC)c(*)s8)sc7c6s5)cc4CC(CCCC)CCCCCC)cc3c(-c3cc(Cl)c(CC(CC)CCCC)s3)c2s1</t>
+  </si>
+  <si>
+    <t>[*]C1=CC2=C(C3=C(C(c4sc(CCCCCC)c(CCCCCC)c4)=C2S1)C=C(c5c(CCCCCCCC)cc(c(n6)sc7c6sc(c8sc([*])c(CCCCCCCC)c8)n7)s5)S3)c9sc(CCCCCC)c(CCCCCC)c9</t>
   </si>
 </sst>
 </file>
@@ -2774,8 +2774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3620,7 +3620,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>115</v>
@@ -3879,10 +3879,10 @@
         <v>#VALUE!</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="E50">
         <v>19.600000000000001</v>
@@ -3896,16 +3896,16 @@
     </row>
     <row r="51" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B51" t="e" vm="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B51" t="e" vm="48">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="E51">
         <v>17.7</v>
@@ -3919,16 +3919,16 @@
     </row>
     <row r="52" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" t="e" vm="49">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B52" t="e" vm="49">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="E52">
         <v>19</v>
@@ -3942,16 +3942,16 @@
     </row>
     <row r="53" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" t="e" vm="50">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B53" t="e" vm="50">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="E53">
         <v>19.399999999999999</v>
@@ -3965,16 +3965,16 @@
     </row>
     <row r="54" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B54" t="e" vm="51">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B54" t="e" vm="51">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E54">
         <v>17.3</v>
@@ -3988,16 +3988,16 @@
     </row>
     <row r="55" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B55" t="e" vm="52">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B55" t="e" vm="52">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="E55">
         <v>18.600000000000001</v>
@@ -4011,16 +4011,16 @@
     </row>
     <row r="56" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B56" t="e" vm="53">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B56" t="e" vm="53">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="E56">
         <v>18.3</v>
@@ -4034,16 +4034,16 @@
     </row>
     <row r="57" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B57" t="e" vm="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B57" t="e" vm="54">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="E57">
         <v>18.3</v>
@@ -4057,16 +4057,16 @@
     </row>
     <row r="58" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B58" t="e" vm="55">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B58" t="e" vm="55">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="E58">
         <v>18.3</v>
@@ -4080,16 +4080,16 @@
     </row>
     <row r="59" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" t="e" vm="56">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B59" t="e" vm="56">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="E59">
         <v>18.3</v>
@@ -4103,16 +4103,16 @@
     </row>
     <row r="60" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B60" t="e" vm="57">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B60" t="e" vm="57">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="E60">
         <v>17.399999999999999</v>
@@ -4126,16 +4126,16 @@
     </row>
     <row r="61" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B61" t="e" vm="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B61" t="e" vm="58">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="E61">
         <v>17.3</v>
@@ -4149,16 +4149,16 @@
     </row>
     <row r="62" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B62" t="e" vm="59">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B62" t="e" vm="59">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="E62">
         <v>19.2</v>
@@ -4172,13 +4172,13 @@
     </row>
     <row r="63" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B63" t="e" vm="60">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B63" t="e" vm="60">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="D63" s="2">
         <v>0</v>
@@ -4195,16 +4195,16 @@
     </row>
     <row r="64" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B64" t="e" vm="61">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B64" t="e" vm="61">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="E64">
         <v>17.3</v>
@@ -4218,30 +4218,30 @@
     </row>
     <row r="65" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B65" t="e" vm="62">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B65" t="e" vm="62">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B66" t="e" vm="63">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B66" t="e" vm="63">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="E66">
         <v>19.5</v>
@@ -4255,16 +4255,16 @@
     </row>
     <row r="67" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B67" t="e" vm="64">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B67" t="e" vm="64">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="E67">
         <v>18.7</v>
@@ -4278,16 +4278,16 @@
     </row>
     <row r="68" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B68" t="e" vm="65">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B68" t="e" vm="65">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="E68">
         <v>18.2</v>
@@ -4301,16 +4301,16 @@
     </row>
     <row r="69" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B69" t="e" vm="66">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B69" t="e" vm="66">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="E69">
         <v>17.3</v>
@@ -4324,30 +4324,30 @@
     </row>
     <row r="70" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B70" t="e" vm="67">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B70" t="e" vm="67">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>210</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B71" t="e" vm="68">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B71" t="e" vm="68">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>213</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="E71">
         <v>18.600000000000001</v>
@@ -4361,44 +4361,44 @@
     </row>
     <row r="72" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B72" t="e" vm="69">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B72" t="e" vm="69">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B73" t="e" vm="70">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B73" t="e" vm="70">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>219</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B74" t="e" vm="71">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B74" t="e" vm="71">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="E74">
         <v>18.3</v>
@@ -4412,13 +4412,13 @@
     </row>
     <row r="75" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B75" t="e" vm="72">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="B75" t="e" vm="72">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>140</v>
@@ -4435,13 +4435,13 @@
     </row>
     <row r="76" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B76" t="e" vm="73">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="B76" t="e" vm="73">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>140</v>
@@ -4458,44 +4458,44 @@
     </row>
     <row r="77" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B77" t="e" vm="74">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B77" t="e" vm="74">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>229</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B78" t="e" vm="75">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B78" t="e" vm="75">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B79" t="e" vm="76">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B79" t="e" vm="76">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="E79">
         <v>18.3</v>
@@ -4509,44 +4509,44 @@
     </row>
     <row r="80" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B80" t="e" vm="77">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B80" t="e" vm="77">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B81" t="e" vm="78">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B81" t="e" vm="78">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C81" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B82" t="e" vm="79">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B82" t="e" vm="79">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C82" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="E82">
         <v>19.8</v>
@@ -4560,16 +4560,16 @@
     </row>
     <row r="83" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B83" t="e" vm="80">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="B83" t="e" vm="80">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="E83">
         <v>19.899999999999999</v>
@@ -4583,27 +4583,27 @@
     </row>
     <row r="84" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B84" t="e" vm="81">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B84" t="e" vm="81">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>250</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B85" t="e" vm="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>252</v>
-      </c>
-      <c r="B85" t="e" vm="82">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>253</v>
       </c>
       <c r="D85" s="2">
         <v>0</v>
@@ -4620,30 +4620,30 @@
     </row>
     <row r="86" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B86" t="e" vm="83">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B86" t="e" vm="83">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B87" t="e" vm="84">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B87" t="e" vm="84">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>259</v>
       </c>
       <c r="E87">
         <v>5</v>
@@ -4657,16 +4657,16 @@
     </row>
     <row r="88" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B88" t="e" vm="85">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B88" t="e" vm="85">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C88" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="E88">
         <v>18.600000000000001</v>
@@ -4680,30 +4680,30 @@
     </row>
     <row r="89" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B89" t="e" vm="86">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="B89" t="e" vm="86">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B90" t="e" vm="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B90" t="e" vm="87">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C90" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="E90">
         <v>18.399999999999999</v>
@@ -4717,30 +4717,30 @@
     </row>
     <row r="91" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B91" t="e" vm="88">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B91" t="e" vm="88">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C91" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B92" t="e" vm="89">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B92" t="e" vm="89">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C92" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="E92">
         <v>19.5</v>
@@ -4754,16 +4754,16 @@
     </row>
     <row r="93" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B93" t="e" vm="90">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B93" t="e" vm="90">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C93" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="E93">
         <v>21</v>
@@ -4777,16 +4777,16 @@
     </row>
     <row r="94" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B94" t="e" vm="91">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B94" t="e" vm="91">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C94" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="E94">
         <v>20.7</v>
@@ -4800,16 +4800,16 @@
     </row>
     <row r="95" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B95" t="e" vm="92">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B95" t="e" vm="92">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C95" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="E95">
         <v>20.6</v>
@@ -4823,16 +4823,16 @@
     </row>
     <row r="96" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B96" t="s">
         <v>96</v>
       </c>
       <c r="C96" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="E96">
         <v>20.3</v>
@@ -4846,13 +4846,13 @@
     </row>
     <row r="97" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B97" t="s">
         <v>96</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D97" s="2">
         <v>0</v>
@@ -4869,16 +4869,16 @@
     </row>
     <row r="98" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B98" t="e" vm="93">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B98" t="e" vm="93">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>290</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>291</v>
       </c>
       <c r="E98">
         <v>20.9</v>
@@ -4892,10 +4892,10 @@
     </row>
     <row r="99" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E99">
         <v>17.100000000000001</v>
@@ -4909,10 +4909,10 @@
     </row>
     <row r="100" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E100">
         <v>16.899999999999999</v>
@@ -4926,10 +4926,10 @@
     </row>
     <row r="101" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E101">
         <v>17.7</v>

--- a/datasets/raw/SMILES_to_BigSMILES_Conversion_wo_block_copolymer_with_HSPs.xlsx
+++ b/datasets/raw/SMILES_to_BigSMILES_Conversion_wo_block_copolymer_with_HSPs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdehgha2\Desktop\phd-code\PLS-Dataset\datasets\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C350CF-6273-44B2-963E-1FF2AA5C1603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AC3AF2-1AC5-4665-8A4E-AC6F7687E4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2774,8 +2774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3885,13 +3885,13 @@
         <v>151</v>
       </c>
       <c r="E50">
-        <v>19.600000000000001</v>
+        <v>20.7</v>
       </c>
       <c r="F50">
-        <v>0.1</v>
+        <v>3.1</v>
       </c>
       <c r="G50">
-        <v>6.3</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">

--- a/datasets/raw/SMILES_to_BigSMILES_Conversion_wo_block_copolymer_with_HSPs.xlsx
+++ b/datasets/raw/SMILES_to_BigSMILES_Conversion_wo_block_copolymer_with_HSPs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sdehgha2\Desktop\phd-code\PLS-Dataset\datasets\raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AC3AF2-1AC5-4665-8A4E-AC6F7687E4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C307596A-8FD0-4195-8615-45FCB9CE7E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Structures" sheetId="1" r:id="rId1"/>
@@ -1167,9 +1167,6 @@
     <t>PFT3</t>
   </si>
   <si>
-    <t>*c4ccc3c2ccc(c1ccc(*)s1)cc2C(CCC[N+](C)(C)CC)(CCC[N+](C)(CC)CC)c3c4.[Br-].[Br-]</t>
-  </si>
-  <si>
     <t>{&lt;c1ccc2c(c1)C(CCC[N+](C)(C)CC)(CCC[N+](C)(CC)CC)c1cc(ccc12.[Br-].[Br-])c3ccc(s3)&gt;}</t>
   </si>
   <si>
@@ -1864,6 +1861,9 @@
   </si>
   <si>
     <t>[*]C1=CC2=C(C3=C(C(c4sc(CCCCCC)c(CCCCCC)c4)=C2S1)C=C(c5c(CCCCCCCC)cc(c(n6)sc7c6sc(c8sc([*])c(CCCCCCCC)c8)n7)s5)S3)c9sc(CCCCCC)c(CCCCCC)c9</t>
+  </si>
+  <si>
+    <t>*c1ccc2c(c1)C(CCC[N+](C)(C)CC)(CCC[N+](C)(C)CC)c1cc(-c3ccc(*)s3)ccc1-2.[Br-].[Br-]</t>
   </si>
 </sst>
 </file>
@@ -2774,8 +2774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="90" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3270,24 +3270,24 @@
         <v>#VALUE!</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="e" vm="21">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B23" t="e" vm="21">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="E23">
         <v>18.5</v>
@@ -3301,16 +3301,16 @@
     </row>
     <row r="24" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" t="e" vm="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B24" t="e" vm="22">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E24">
         <v>18.3</v>
@@ -3324,16 +3324,16 @@
     </row>
     <row r="25" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="e" vm="23">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B25" t="e" vm="23">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E25">
         <v>17.5</v>
@@ -3347,16 +3347,16 @@
     </row>
     <row r="26" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" t="e" vm="24">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B26" t="e" vm="24">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="E26">
         <v>18.3</v>
@@ -3370,30 +3370,30 @@
     </row>
     <row r="27" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" t="e" vm="25">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B27" t="e" vm="25">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" t="e" vm="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B28" t="e" vm="26">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E28">
         <v>20.7</v>
@@ -3407,16 +3407,16 @@
     </row>
     <row r="29" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" t="e" vm="27">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B29" t="e" vm="27">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="E29">
         <v>18.600000000000001</v>
@@ -3430,16 +3430,16 @@
     </row>
     <row r="30" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" t="e" vm="28">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B30" t="e" vm="28">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="E30">
         <v>18.8</v>
@@ -3453,16 +3453,16 @@
     </row>
     <row r="31" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31" t="e" vm="29">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B31" t="e" vm="29">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E31">
         <v>19.100000000000001</v>
@@ -3476,16 +3476,16 @@
     </row>
     <row r="32" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" t="s">
         <v>95</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E32">
         <v>18.7</v>
@@ -3499,16 +3499,16 @@
     </row>
     <row r="33" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="e" vm="30">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B33" t="e" vm="30">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="D33" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>101</v>
       </c>
       <c r="E33">
         <v>20.100000000000001</v>
@@ -3522,16 +3522,16 @@
     </row>
     <row r="34" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B34" t="e" vm="31">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B34" t="e" vm="31">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="D34" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="E34">
         <v>17.100000000000001</v>
@@ -3545,16 +3545,16 @@
     </row>
     <row r="35" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="e" vm="32">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B35" t="e" vm="32">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="E35">
         <v>19.100000000000001</v>
@@ -3568,16 +3568,16 @@
     </row>
     <row r="36" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B36" t="e" vm="33">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B36" t="e" vm="33">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="D36" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="E36">
         <v>17.7</v>
@@ -3591,16 +3591,16 @@
     </row>
     <row r="37" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B37" t="e" vm="34">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B37" t="e" vm="34">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="D37" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="E37">
         <v>17.399999999999999</v>
@@ -3614,31 +3614,31 @@
     </row>
     <row r="38" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" t="e" vm="35">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="B38" t="e" vm="35">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="J38" s="6"/>
     </row>
     <row r="39" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" t="e" vm="36">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B39" t="e" vm="36">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="D39" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="E39">
         <v>18.899999999999999</v>
@@ -3652,16 +3652,16 @@
     </row>
     <row r="40" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B40" t="e" vm="37">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B40" t="e" vm="37">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="D40" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="E40">
         <v>18.3</v>
@@ -3675,16 +3675,16 @@
     </row>
     <row r="41" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B41" t="e" vm="38">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B41" t="e" vm="38">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="D41" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E41">
         <v>19.2</v>
@@ -3698,16 +3698,16 @@
     </row>
     <row r="42" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" t="e" vm="39">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B42" t="e" vm="39">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="D42" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="E42">
         <v>17.2</v>
@@ -3721,16 +3721,16 @@
     </row>
     <row r="43" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B43" t="e" vm="40">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B43" t="e" vm="40">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="D43" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="E43">
         <v>18.7</v>
@@ -3744,16 +3744,16 @@
     </row>
     <row r="44" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B44" t="e" vm="41">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B44" t="e" vm="41">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="E44">
         <v>18.5</v>
@@ -3767,30 +3767,30 @@
     </row>
     <row r="45" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" t="e" vm="42">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B45" t="e" vm="42">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="D45" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" t="e" vm="43">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B46" t="e" vm="43">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="D46" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="E46">
         <v>19.399999999999999</v>
@@ -3804,16 +3804,16 @@
     </row>
     <row r="47" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" t="e" vm="44">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B47" t="e" vm="44">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="D47" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="E47">
         <v>20.5</v>
@@ -3827,16 +3827,16 @@
     </row>
     <row r="48" spans="1:10" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" t="e" vm="45">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B48" t="e" vm="45">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="E48">
         <v>20.3</v>
@@ -3850,16 +3850,16 @@
     </row>
     <row r="49" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" t="e" vm="46">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B49" t="e" vm="46">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="E49">
         <v>17.8</v>
@@ -3873,16 +3873,16 @@
     </row>
     <row r="50" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B50" t="e" vm="47">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B50" t="e" vm="47">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="E50">
         <v>20.7</v>
@@ -3896,16 +3896,16 @@
     </row>
     <row r="51" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" t="e" vm="48">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B51" t="e" vm="48">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="E51">
         <v>17.7</v>
@@ -3919,16 +3919,16 @@
     </row>
     <row r="52" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" t="e" vm="49">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B52" t="e" vm="49">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="D52" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="E52">
         <v>19</v>
@@ -3942,16 +3942,16 @@
     </row>
     <row r="53" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" t="e" vm="50">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B53" t="e" vm="50">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E53">
         <v>19.399999999999999</v>
@@ -3965,16 +3965,16 @@
     </row>
     <row r="54" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" t="e" vm="51">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B54" t="e" vm="51">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="E54">
         <v>17.3</v>
@@ -3988,16 +3988,16 @@
     </row>
     <row r="55" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" t="e" vm="52">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B55" t="e" vm="52">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="E55">
         <v>18.600000000000001</v>
@@ -4011,16 +4011,16 @@
     </row>
     <row r="56" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" t="e" vm="53">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B56" t="e" vm="53">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="E56">
         <v>18.3</v>
@@ -4034,16 +4034,16 @@
     </row>
     <row r="57" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" t="e" vm="54">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B57" t="e" vm="54">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="D57" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="E57">
         <v>18.3</v>
@@ -4057,16 +4057,16 @@
     </row>
     <row r="58" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B58" t="e" vm="55">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B58" t="e" vm="55">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="D58" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>175</v>
       </c>
       <c r="E58">
         <v>18.3</v>
@@ -4080,16 +4080,16 @@
     </row>
     <row r="59" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B59" t="e" vm="56">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B59" t="e" vm="56">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="E59">
         <v>18.3</v>
@@ -4103,16 +4103,16 @@
     </row>
     <row r="60" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B60" t="e" vm="57">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B60" t="e" vm="57">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>181</v>
       </c>
       <c r="E60">
         <v>17.399999999999999</v>
@@ -4126,16 +4126,16 @@
     </row>
     <row r="61" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" t="e" vm="58">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B61" t="e" vm="58">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="D61" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="E61">
         <v>17.3</v>
@@ -4149,16 +4149,16 @@
     </row>
     <row r="62" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B62" t="e" vm="59">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B62" t="e" vm="59">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="D62" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="E62">
         <v>19.2</v>
@@ -4172,13 +4172,13 @@
     </row>
     <row r="63" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B63" t="e" vm="60">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="B63" t="e" vm="60">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="D63" s="2">
         <v>0</v>
@@ -4195,16 +4195,16 @@
     </row>
     <row r="64" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B64" t="e" vm="61">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="B64" t="e" vm="61">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="E64">
         <v>17.3</v>
@@ -4218,30 +4218,30 @@
     </row>
     <row r="65" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B65" t="e" vm="62">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="B65" t="e" vm="62">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C65" s="2" t="s">
+      <c r="D65" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" t="e" vm="63">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B66" t="e" vm="63">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="D66" s="2" t="s">
         <v>197</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="E66">
         <v>19.5</v>
@@ -4255,16 +4255,16 @@
     </row>
     <row r="67" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" t="e" vm="64">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="B67" t="e" vm="64">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="E67">
         <v>18.7</v>
@@ -4278,16 +4278,16 @@
     </row>
     <row r="68" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B68" t="e" vm="65">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="B68" t="e" vm="65">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="D68" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>204</v>
       </c>
       <c r="E68">
         <v>18.2</v>
@@ -4301,16 +4301,16 @@
     </row>
     <row r="69" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B69" t="e" vm="66">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B69" t="e" vm="66">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C69" s="2" t="s">
+      <c r="D69" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="E69">
         <v>17.3</v>
@@ -4324,30 +4324,30 @@
     </row>
     <row r="70" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B70" t="e" vm="67">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B70" t="e" vm="67">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B71" t="e" vm="68">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="B71" t="e" vm="68">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="D71" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="E71">
         <v>18.600000000000001</v>
@@ -4361,44 +4361,44 @@
     </row>
     <row r="72" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B72" t="e" vm="69">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B72" t="e" vm="69">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B73" t="e" vm="70">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B73" t="e" vm="70">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B74" t="e" vm="71">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B74" t="e" vm="71">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C74" s="2" t="s">
+      <c r="D74" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="E74">
         <v>18.3</v>
@@ -4412,16 +4412,16 @@
     </row>
     <row r="75" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B75" t="e" vm="72">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B75" t="e" vm="72">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="D75" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E75" s="2">
         <v>18.100000000000001</v>
@@ -4435,16 +4435,16 @@
     </row>
     <row r="76" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B76" t="e" vm="73">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B76" t="e" vm="73">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="D76" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E76">
         <v>18.5</v>
@@ -4458,44 +4458,44 @@
     </row>
     <row r="77" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B77" t="e" vm="74">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B77" t="e" vm="74">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B78" t="e" vm="75">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B78" t="e" vm="75">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B79" t="e" vm="76">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B79" t="e" vm="76">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>234</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>235</v>
       </c>
       <c r="E79">
         <v>18.3</v>
@@ -4509,44 +4509,44 @@
     </row>
     <row r="80" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B80" t="e" vm="77">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B80" t="e" vm="77">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B81" t="e" vm="78">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B81" t="e" vm="78">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C81" s="2" t="s">
+      <c r="D81" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="D81" s="2" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B82" t="e" vm="79">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B82" t="e" vm="79">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C82" s="2" t="s">
+      <c r="D82" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="E82">
         <v>19.8</v>
@@ -4560,16 +4560,16 @@
     </row>
     <row r="83" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B83" t="e" vm="80">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B83" t="e" vm="80">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C83" s="2" t="s">
+      <c r="D83" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="E83">
         <v>19.899999999999999</v>
@@ -4583,27 +4583,27 @@
     </row>
     <row r="84" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B84" t="e" vm="81">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B84" t="e" vm="81">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C84" s="2" t="s">
+      <c r="D84" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B85" t="e" vm="82">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="B85" t="e" vm="82">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="D85" s="2">
         <v>0</v>
@@ -4620,30 +4620,30 @@
     </row>
     <row r="86" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B86" t="e" vm="83">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B86" t="e" vm="83">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" s="2" t="s">
         <v>254</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B87" t="e" vm="84">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B87" t="e" vm="84">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C87" s="2" t="s">
+      <c r="D87" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="E87">
         <v>5</v>
@@ -4657,16 +4657,16 @@
     </row>
     <row r="88" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B88" t="e" vm="85">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B88" t="e" vm="85">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C88" s="2" t="s">
+      <c r="D88" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="E88">
         <v>18.600000000000001</v>
@@ -4680,30 +4680,30 @@
     </row>
     <row r="89" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B89" t="e" vm="86">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B89" t="e" vm="86">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C89" s="2" t="s">
+      <c r="D89" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B90" t="e" vm="87">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B90" t="e" vm="87">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C90" s="2" t="s">
+      <c r="D90" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="E90">
         <v>18.399999999999999</v>
@@ -4717,30 +4717,30 @@
     </row>
     <row r="91" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B91" t="e" vm="88">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B91" t="e" vm="88">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C91" s="2" t="s">
+      <c r="D91" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B92" t="e" vm="89">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C92" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B92" t="e" vm="89">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C92" s="2" t="s">
+      <c r="D92" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="E92">
         <v>19.5</v>
@@ -4754,16 +4754,16 @@
     </row>
     <row r="93" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B93" t="e" vm="90">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C93" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B93" t="e" vm="90">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C93" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="E93">
         <v>21</v>
@@ -4777,16 +4777,16 @@
     </row>
     <row r="94" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B94" t="e" vm="91">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C94" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B94" t="e" vm="91">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C94" s="2" t="s">
+      <c r="D94" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="E94">
         <v>20.7</v>
@@ -4800,16 +4800,16 @@
     </row>
     <row r="95" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B95" t="e" vm="92">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B95" t="e" vm="92">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C95" s="2" t="s">
+      <c r="D95" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="E95">
         <v>20.6</v>
@@ -4823,16 +4823,16 @@
     </row>
     <row r="96" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B96" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B96" t="s">
-        <v>96</v>
-      </c>
-      <c r="C96" s="2" t="s">
+      <c r="D96" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="E96">
         <v>20.3</v>
@@ -4846,13 +4846,13 @@
     </row>
     <row r="97" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B97" t="s">
+        <v>95</v>
+      </c>
+      <c r="C97" s="2" t="s">
         <v>286</v>
-      </c>
-      <c r="B97" t="s">
-        <v>96</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="D97" s="2">
         <v>0</v>
@@ -4869,16 +4869,16 @@
     </row>
     <row r="98" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B98" t="e" vm="93">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B98" t="e" vm="93">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C98" s="2" t="s">
+      <c r="D98" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="E98">
         <v>20.9</v>
@@ -4892,10 +4892,10 @@
     </row>
     <row r="99" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E99">
         <v>17.100000000000001</v>
@@ -4909,10 +4909,10 @@
     </row>
     <row r="100" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E100">
         <v>16.899999999999999</v>
@@ -4926,10 +4926,10 @@
     </row>
     <row r="101" spans="1:7" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E101">
         <v>17.7</v>
